--- a/data/c_fcv.xlsx
+++ b/data/c_fcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.7473427043626802</v>
+        <v>0.7605902407559192</v>
       </c>
       <c r="D2">
-        <v>0.5660897603067372</v>
+        <v>0.02912092038057533</v>
       </c>
       <c r="E2">
-        <v>0.7353272719825436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.5769184139509725</v>
+      </c>
+      <c r="F2">
+        <v>0.03116412515734985</v>
+      </c>
+      <c r="G2">
+        <v>0.7425940608799981</v>
+      </c>
+      <c r="H2">
+        <v>0.02060120262929459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.7319348371419909</v>
+        <v>0.7576326266171074</v>
       </c>
       <c r="D3">
-        <v>0.5488897115792497</v>
+        <v>0.02758041201676718</v>
       </c>
       <c r="E3">
-        <v>0.7096744623388573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.5476353479174623</v>
+      </c>
+      <c r="F3">
+        <v>0.03752369141805782</v>
+      </c>
+      <c r="G3">
+        <v>0.7267392633558764</v>
+      </c>
+      <c r="H3">
+        <v>0.01911661650980238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.7724966426601251</v>
+        <v>0.7863669187482778</v>
       </c>
       <c r="D4">
-        <v>0.6666869692683985</v>
+        <v>0.02754914785742697</v>
       </c>
       <c r="E4">
-        <v>0.7349504174305398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.6713884126468413</v>
+      </c>
+      <c r="F4">
+        <v>0.03660659015393389</v>
+      </c>
+      <c r="G4">
+        <v>0.7466812456377306</v>
+      </c>
+      <c r="H4">
+        <v>0.01730827436236156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7678879018160065</v>
+        <v>0.7554103753930235</v>
       </c>
       <c r="D5">
-        <v>0.659391328735068</v>
+        <v>0.02635369798642654</v>
       </c>
       <c r="E5">
-        <v>0.7222559656366924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6665567863942251</v>
+      </c>
+      <c r="F5">
+        <v>0.03908385819458696</v>
+      </c>
+      <c r="G5">
+        <v>0.7220109420252856</v>
+      </c>
+      <c r="H5">
+        <v>0.01941248095376418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.7465008720571196</v>
+        <v>0.7599349068026771</v>
       </c>
       <c r="D6">
-        <v>0.5459176962209193</v>
+        <v>0.02606021869132721</v>
       </c>
       <c r="E6">
-        <v>0.7184545878629441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.5416935783742984</v>
+      </c>
+      <c r="F6">
+        <v>0.03385873008535697</v>
+      </c>
+      <c r="G6">
+        <v>0.7321594678086751</v>
+      </c>
+      <c r="H6">
+        <v>0.01966134238044209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.7604031804046831</v>
+        <v>0.8208539601169849</v>
       </c>
       <c r="D7">
-        <v>0.5570202247433305</v>
+        <v>0.02808521397824066</v>
       </c>
       <c r="E7">
-        <v>0.7307158061956991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.7067501603665434</v>
+      </c>
+      <c r="F7">
+        <v>0.03524409152271004</v>
+      </c>
+      <c r="G7">
+        <v>0.7880615701290051</v>
+      </c>
+      <c r="H7">
+        <v>0.02314158065942502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.5926073765369736</v>
+        <v>0.800511415845199</v>
       </c>
       <c r="D8">
-        <v>0.4265384103633236</v>
+        <v>0.02721022775054627</v>
       </c>
       <c r="E8">
-        <v>0.6252112758312983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.7882917794544284</v>
-      </c>
-      <c r="D9">
-        <v>0.6635128962549387</v>
-      </c>
-      <c r="E9">
-        <v>0.7602812265834796</v>
+        <v>0.6718074731601458</v>
+      </c>
+      <c r="F8">
+        <v>0.03072141214940161</v>
+      </c>
+      <c r="G8">
+        <v>0.7713099607472109</v>
+      </c>
+      <c r="H8">
+        <v>0.01254476845599847</v>
       </c>
     </row>
   </sheetData>
